--- a/biology/Botanique/Super_Star_(rose)/Super_Star_(rose).xlsx
+++ b/biology/Botanique/Super_Star_(rose)/Super_Star_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Super Star' (syn. 'Tropicana', 'TANostar') est un cultivar de rosier obtenu en 1960 par l'obtenteur ouest-allemand Mathias Tantau junior. C'est la première rose d'un rose vermillon brillant corail obtenue par cette maison et elle a été très à la mode dans les années 1960, et est toujours appréciée aujourd'hui[1]. Cet hybride de thé est aussi le parent de nombreuses sortes de roses.
+'Super Star' (syn. 'Tropicana', 'TANostar') est un cultivar de rosier obtenu en 1960 par l'obtenteur ouest-allemand Mathias Tantau junior. C'est la première rose d'un rose vermillon brillant corail obtenue par cette maison et elle a été très à la mode dans les années 1960, et est toujours appréciée aujourd'hui. Cet hybride de thé est aussi le parent de nombreuses sortes de roses.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson érigé de 'Super Star' s'élève à 120 cm de hauteur. Ses fleurs fortement parfumées remontent généreusement en début d'automne. Elles mesurent de 9 cm à 12 cm de diamètre[2] avec de 30 à 35 pétales et fleurissent en bouquet qui peuvent comporter cinq fleurs sur de longues tiges. 
-'Super Star' est très résistante au froid (zone de rusticité : 5b)[3], et elle doit se trouver dans une situation ensoleillée[4]. Elle doit être traitée contre l'oïdium. Elle est issue d'un croisement (semis non nommé x 'Madame Meilland') x (semis non nommé x 'Alpine Glow').
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson érigé de 'Super Star' s'élève à 120 cm de hauteur. Ses fleurs fortement parfumées remontent généreusement en début d'automne. Elles mesurent de 9 cm à 12 cm de diamètre avec de 30 à 35 pétales et fleurissent en bouquet qui peuvent comporter cinq fleurs sur de longues tiges. 
+'Super Star' est très résistante au froid (zone de rusticité : 5b), et elle doit se trouver dans une situation ensoleillée. Elle doit être traitée contre l'oïdium. Elle est issue d'un croisement (semis non nommé x 'Madame Meilland') x (semis non nommé x 'Alpine Glow').
 Un sport grimpant a été découvert en 1971 par Boerner et baptisé du nom de 'Climbing Super Star' (syn. 'Climbing Tropicana').
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>AARS 1963
 RNS : Médaille d'or 1960
@@ -579,7 +595,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi sa descendance, l'on peut distinguer 'Angelina' (Cocker, 1975), 'Königin der Rosen' (Kordes, 1964), 'Lady Like' (Tantau, 1982), 'Mambo' (Tantau, 1971), 'Morgenrot' (Kordes, 1983), 'Red Reflection' (Warriner, 1984).
 </t>
